--- a/Risk_sheets/Indicator aggregation.xlsx
+++ b/Risk_sheets/Indicator aggregation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljmac/Google Drive/PhD/R code/Compound Risk/Compound Risk/covid/compoundriskdata/Risk_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53EA7F2-D5E8-144D-B92F-85FF3486AB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269242C4-8A02-794C-8AA8-0122D1028A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{B42EF1BE-965E-B741-ADF0-C68AD4A5C459}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <r>
       <t xml:space="preserve">Growth in conflict fatalities - </t>
@@ -1231,15 +1231,6 @@
     <t>SOURCE INDICATORS</t>
   </si>
   <si>
-    <t>i.	Fuel imports (% of merchandise imports) 2018
-ii.	Food imports (% of merchandise imports) 2018	
-iii.	Travel and Tourism total contribution to GDP, Percentage share of total GDP, 2019
-iv.	Net ODA received (% of central government expense) 2017
-v.	Personal remittances, received (% of GDP) 2017	
-vi.	Total reserves in months of imports 2016	
-vii.	Gross savings (% of GDP) 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">min-max normalization for each variable (with high/low thresholds assigned)
 Economic dependence = 
 Financial capacity = 
@@ -1247,12 +1238,33 @@
 Macro = max(ED, FC)
 </t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Natural multi-hazard rating (INFORM) – 2020 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHS is made up of six categories (comrised of 34 indicators, 85 sub-indicators). The categories include: prevention; detection and reporting; rapid response; health system; compliance with international norms; and risk environment. For more details see link. </t>
+  </si>
+  <si>
+    <t>Aggregation primarily achieved through a Principle Components Analysis (PCA) with expert derived weights. See link for more details.</t>
+  </si>
+  <si>
+    <t>i.	 Fuel imports (% of merchandise imports) 2018
+ii.	 Food imports (% of merchandise imports) 2018	
+iii.	 Travel and Tourism total contribution to GDP, Percentage share of total GDP, 2019
+iv.	 Net ODA received (% of central government expense) 2017
+v.	 Personal remittances, received (% of GDP) 2017	
+vi.	 Total reserves in months of imports 2016	
+vii.	 Gross savings (% of GDP) 2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1334,6 +1346,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
       <i/>
       <u/>
       <sz val="12"/>
@@ -1355,7 +1374,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,18 +1467,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1590,9 +1615,27 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,7 +1644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1787,41 +1830,111 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1846,15 +1959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2136448</xdr:colOff>
+      <xdr:colOff>1400556</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>261122</xdr:rowOff>
+      <xdr:rowOff>272991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2847648</xdr:colOff>
+      <xdr:colOff>2111756</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>488298</xdr:rowOff>
+      <xdr:rowOff>500167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1894,7 +2007,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15691027" y="5020655"/>
+          <a:off x="15204388" y="6848505"/>
           <a:ext cx="711200" cy="227176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1917,15 +2030,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1994019</xdr:colOff>
+      <xdr:colOff>783364</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>652803</xdr:rowOff>
+      <xdr:rowOff>629064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2768719</xdr:colOff>
+      <xdr:colOff>1558064</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>879979</xdr:rowOff>
+      <xdr:rowOff>856240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1965,7 +2078,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15548598" y="5412336"/>
+          <a:off x="14587196" y="7204578"/>
           <a:ext cx="774700" cy="227176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1988,15 +2101,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2077103</xdr:colOff>
+      <xdr:colOff>1080094</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1044486</xdr:rowOff>
+      <xdr:rowOff>1068225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>477852</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2697385</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1271661</xdr:rowOff>
+      <xdr:rowOff>1295400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2036,8 +2149,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15631682" y="5804019"/>
-          <a:ext cx="1498600" cy="227175"/>
+          <a:off x="14883926" y="7643739"/>
+          <a:ext cx="1617291" cy="227175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2059,15 +2172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2053365</xdr:colOff>
+      <xdr:colOff>961402</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1483645</xdr:rowOff>
+      <xdr:rowOff>1448038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2599465</xdr:colOff>
+      <xdr:colOff>1507502</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1710821</xdr:rowOff>
+      <xdr:rowOff>1675214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2107,7 +2220,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15607944" y="6243178"/>
+          <a:off x="14765234" y="8023552"/>
           <a:ext cx="546100" cy="227176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2130,13 +2243,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2100841</xdr:colOff>
+      <xdr:colOff>985141</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1863457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2786641</xdr:colOff>
+      <xdr:colOff>1670941</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2103333</xdr:rowOff>
     </xdr:to>
@@ -2178,7 +2291,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15655420" y="6622990"/>
+          <a:off x="14788973" y="8438971"/>
           <a:ext cx="685800" cy="239876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2201,15 +2314,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2100840</xdr:colOff>
+      <xdr:colOff>1008878</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2267010</xdr:rowOff>
+      <xdr:rowOff>2255140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2735840</xdr:colOff>
+      <xdr:colOff>1643878</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2506886</xdr:rowOff>
+      <xdr:rowOff>2495016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2249,7 +2362,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15655419" y="7026543"/>
+          <a:off x="14812710" y="8830654"/>
           <a:ext cx="635000" cy="239876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2272,15 +2385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2480654</xdr:colOff>
+      <xdr:colOff>1804111</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2682430</xdr:rowOff>
+      <xdr:rowOff>2694298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17803</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2467200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2922305</xdr:rowOff>
+      <xdr:rowOff>2943551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2320,8 +2433,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16035233" y="7441963"/>
-          <a:ext cx="635000" cy="239875"/>
+          <a:off x="15607943" y="9269812"/>
+          <a:ext cx="663089" cy="249253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5695,8 +5808,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5705,7 +5818,7 @@
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -5726,27 +5839,28 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="86" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5757,17 +5871,18 @@
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
@@ -5776,24 +5891,25 @@
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="70" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5804,50 +5920,57 @@
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
-      <c r="G8" s="79"/>
+      <c r="E8" s="59"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="71" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="G10" s="80"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="G10" s="72"/>
     </row>
-    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="G11" s="79"/>
+      <c r="D11" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
@@ -5856,66 +5979,72 @@
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
-      <c r="G12" s="78"/>
+      <c r="E12" s="56"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="69" t="s">
+      <c r="B13" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="66"/>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="70" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" spans="1:7" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="69" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="WFP Proteus composite index: " xr:uid="{3B8342E4-A803-C342-923C-31BDAA92A373}"/>
     <hyperlink ref="B11" r:id="rId2" xr:uid="{95E245AA-F0BF-3C40-B212-C5EC3EDEDF2E}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{82229414-7E95-8E43-815A-22C69EA2CCD6}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{FA02952C-EDF6-F54B-9A86-21CC7CEB968F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
